--- a/Traits.xlsx
+++ b/Traits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\HEXAGON-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Academic" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="PAAP">'[1]World Union Members'!$C$5</definedName>
     <definedName name="SFG">'[1]World Union Members'!$D$10</definedName>
     <definedName name="SFP">'[1]World Union Members'!$C$10</definedName>
-    <definedName name="SkillCost">[1]Mechanics!$Z$18:$AA$38</definedName>
+    <definedName name="SkillCost">[1]Mechanics!$Z$18:$AA$39</definedName>
     <definedName name="TotRev">'[1]World Union Management'!$D$42</definedName>
     <definedName name="UAPG">'[1]World Union Members'!$D$9</definedName>
     <definedName name="UAPP">'[1]World Union Members'!$C$9</definedName>
@@ -57,28 +57,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="187">
   <si>
     <t>Technobabble</t>
   </si>
   <si>
     <t>Deduction</t>
-  </si>
-  <si>
-    <t>When using a medical facility, your Patch
-Up can be used to install prosthetics and
-perform surgical reconstruction on living
-beings. This treats critical injuries.</t>
-  </si>
-  <si>
-    <t>When creating an antidote, vaccine, drug,
-poison or pathogen in a lab, state the
-effect you want it to have and its method
-of transmission (spray, injector, pill, etc).
-Roll+Expertise.
-On a 10+, you successfully create it.
-On a 7-9, it will have reduced potency or
-have unintended side effects.</t>
   </si>
   <si>
     <t>Surgery</t>
@@ -141,21 +125,6 @@
 there.</t>
   </si>
   <si>
-    <t>When you tamper with machines, plans,
-etc, describe how you go about it and
-Roll+[Stat].
-On a 10+ the target of your tampering is
-doomed to fail, just as you planned.
-On a 7-9, the target of your tampering is
-doomed to fail spectacularly, horrifically
-or comically, at the GM’s discretion.</t>
-  </si>
-  <si>
-    <t>Any successful (10+) Move that results in
-someone’s death also leaves no evidence
-that you committed the act.</t>
-  </si>
-  <si>
     <t>After you Access someone’s personal
 systems, you can track that person’s
 public movements from then on (general
@@ -221,14 +190,6 @@
 description.</t>
   </si>
   <si>
-    <t>You can use Acquisition to purchase the
-following:
-• Political power
-• Legal decisions
-• Faction involvement
-• Diplomatic immunity</t>
-  </si>
-  <si>
     <t>Explorer</t>
   </si>
   <si>
@@ -245,16 +206,6 @@
   </si>
   <si>
     <t>Custom Vehicle</t>
-  </si>
-  <si>
-    <t>When leading an expedition into the
-unknown, Roll+Mettle.
-On a 10+, choose 1.
-On a 7-9, the GM will choose 1.
-You encounter…
-• something potentially profitable
-• something currently useful
-• something uniquely awesome</t>
   </si>
   <si>
     <t>When you make an Assessment of any
@@ -274,15 +225,6 @@
 • Primitive Class 0 melee weapon</t>
   </si>
   <si>
-    <t>When you make a needlessly risky Move
-where the odds are a million to one, roll
-1d6 instead of making a normal Roll.
-On a 4, 5 or 6, the Move is a fantastically
-lucky success. On a 1, 2 or 3, the Move is
-a spectacularly awful failure with harsh
-consequences.</t>
-  </si>
-  <si>
     <t>You own a custom-designed Class 3
 land vehicle. If that vehicle is ever lost,
 you can spend an extended period of
@@ -307,13 +249,6 @@
   </si>
   <si>
     <t>Dismantle</t>
-  </si>
-  <si>
-    <t>When using a repair bay or workshop,
-your Patch Up can be used to install
-replacement parts and perform major
-reconstruction on machines. This repairs
-critical and fatal breakages.</t>
   </si>
   <si>
     <t>A few hours of work creates a small
@@ -330,24 +265,6 @@
 • Shoddy Class 0 melee weapon
 • Makeshift Class 0 explosive
 • Crude Engineering Kit</t>
-  </si>
-  <si>
-    <t>Your Patch Up can very temporarily
-add up to one additional upgrade to a
-weapon or vehicle, briefly increasing its
-Class by +1.</t>
-  </si>
-  <si>
-    <t>When forcefully dismantling,
-demolishing or breaking something,
-Roll+Physique.
-On a 10+, choose 2.
-On a 7-9, choose 1.
-• It doesn’t take very long.
-• It doesn’t attract too much attention.
-• You recover useful components.
-• You could rebuild or reassemble it.
-• You gain a Data Point about it.</t>
   </si>
   <si>
     <t>Military</t>
@@ -655,9 +572,6 @@
     <t>Structural</t>
   </si>
   <si>
-    <t>Electrics or Electronics</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -765,27 +679,6 @@
   </si>
   <si>
     <t>Launch</t>
-  </si>
-  <si>
-    <t>Your physical strength and manipulation
-can be projected at a distance. Projected
-physical Moves (Launch Assault, Face
-Adversity, etc) still use +Physique.</t>
-  </si>
-  <si>
-    <t>You can propel subjects in the direction
-of your choice, using +Physique. Small,
-inanimate objects can be launched with
-deadly speed and precision. Large, oddly
-shaped or defiant subjects (small vehicles,
-people) tend to be clumsier projectiles.</t>
-  </si>
-  <si>
-    <t>You grant +1 Armor to yourself and any
-nearby ally or vehicle of your choosing.
-You may Face Adversity using +Mettle to
-protect nearby subjects that cannot Brace
-for Impact for themselves.</t>
   </si>
   <si>
     <t>You can soar, glide and hover in midair.</t>
@@ -859,12 +752,143 @@
 systems remain connected to you as long
 as you are within signal range.</t>
   </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Politics or Etiquette</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Athletism or Acrobatism</t>
+  </si>
+  <si>
+    <t>Athletism</t>
+  </si>
+  <si>
+    <t>Acrobatism</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Electrics or Informatics</t>
+  </si>
+  <si>
+    <t>You have access to a high-grade chemistry lab and own all the necessary licenses to create any compound. Also, you need half as much time to create chemical products.</t>
+  </si>
+  <si>
+    <t>When using a medical facility, your Medecine skill can be used to install prosthetics and
+perform surgical reconstruction on living
+beings. This treats critical injuries.</t>
+  </si>
+  <si>
+    <t>Any successful Roll that results in
+someone’s death also leaves no evidence
+that you committed the act.</t>
+  </si>
+  <si>
+    <t>You can use the Market Skill to purchase the
+following:
+• Political power
+• Legal decisions
+• Faction involvement
+• Diplomatic immunity</t>
+  </si>
+  <si>
+    <t>When you tamper with machines, plans,
+etc, describe how you go about it and
+Roll Mechanics, Electrics or Electronics DIF 25.
+On a Success: The target of your tampering is
+doomed to fail, just as you planned.
+On a Failure: The target of your tampering is doomed to fail spectacularly, horrifically
+or comically, at the GM’s discretion.</t>
+  </si>
+  <si>
+    <t>When leading an expedition into the
+unknown, Roll Wits DIF 20.
+On a Success, choose 1.
+On a Failure, the GM will choose 1.
+You encounter…
+• something potentially profitable
+• something currently useful
+• something uniquely awesome</t>
+  </si>
+  <si>
+    <t>When you make a needlessly risky Move
+where the odds are a million to one, make a luck roll (no bonus).
+On a 10 or more, the Move is a fantastically
+lucky success. 
+On a 9 or less , the Move is
+a spectacularly awful failure with harsh
+consequences.</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>When using a repair bay or workshop,
+your Engineering skill can be used to install
+replacement parts and perform major
+reconstruction on machines. This repairs
+critical and fatal breakages.</t>
+  </si>
+  <si>
+    <t>When forcefully dismantling,
+demolishing or breaking something,
+make an Athletic roll.
+On a Success, choose 2.
+On a Failure, choose 1.
+• It doesn’t take very long.
+• It doesn’t attract too much attention.
+• You recover useful components.
+• You could rebuild or reassemble it.
+• You gain a Data Point about it.</t>
+  </si>
+  <si>
+    <t>By making an Engineering roll, you can very temporarily add up to one additional upgrade to a
+weapon or vehicle, briefly increasing its
+Class by +1.</t>
+  </si>
+  <si>
+    <t>You can propel subjects in the direction
+of your choice, using Discipline. Small,
+inanimate objects can be launched with
+deadly speed and precision. Large, oddly
+shaped or defiant subjects (small vehicles,
+people) tend to be clumsier projectiles. DIF depends on size and type of object.</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>You grant +4 Armor to yourself and any
+nearby ally or vehicle of your choosing.
+You may roll Concentration DIF 20 to
+protect nearby subjects that cannot Save roll for themselves.</t>
+  </si>
+  <si>
+    <t>Your physical strength and manipulation
+can be projected at a distance. Telekinesis can be used as a weapon itself when fighting in Close Combat. 
+It is considered a Class 2 Small Weapon with Impact and  Glove Upgrades. Its Optimal Range is Melee to Close</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,19 +921,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -924,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,6 +996,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,6 +1027,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Mechanics"/>
+      <sheetName val="Perks"/>
       <sheetName val="Character Sheet"/>
       <sheetName val="Interstellar Travel"/>
       <sheetName val="World Union Members"/>
@@ -1072,9 +1119,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
         <row r="4">
           <cell r="C4">
             <v>658</v>
@@ -1124,16 +1172,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="5">
         <row r="42">
           <cell r="D42">
             <v>103631.7389096416</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1402,17 +1450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G21" sqref="G21:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1427,26 +1478,26 @@
       <c r="E5" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,11 +1507,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1470,11 +1521,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,11 +1535,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1542,26 +1593,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1702,14 +1753,14 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -1864,14 +1915,14 @@
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1887,25 +1938,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1914,9 +1965,13 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -1924,9 +1979,13 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -1934,9 +1993,13 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1989,26 +2052,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2137,26 +2200,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2318,7 +2381,7 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2334,25 +2397,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,11 +2425,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2376,11 +2439,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,11 +2453,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,26 +2511,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2596,26 +2659,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2777,7 +2840,7 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2793,25 +2856,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2821,11 +2884,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,11 +2898,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2849,11 +2912,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2907,26 +2970,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -3055,26 +3118,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -3229,14 +3292,14 @@
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3252,25 +3315,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,11 +3343,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3294,11 +3357,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,11 +3371,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,26 +3429,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -3514,26 +3577,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -3687,15 +3750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3711,25 +3774,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3738,9 +3801,13 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -3748,9 +3815,13 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -3758,9 +3829,13 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -3813,26 +3888,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -3961,26 +4036,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4132,17 +4207,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4158,25 +4236,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4185,9 +4263,13 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -4195,9 +4277,13 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -4205,9 +4291,13 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -4260,26 +4350,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -4408,26 +4498,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4579,17 +4669,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4605,25 +4698,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4633,11 +4726,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4647,11 +4740,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,11 +4754,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4719,26 +4812,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -4867,26 +4960,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -5038,17 +5131,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5064,25 +5160,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5092,11 +5188,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5106,11 +5202,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5120,11 +5216,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,26 +5274,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -5326,26 +5422,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -5497,17 +5593,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5523,25 +5622,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,11 +5650,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5565,11 +5664,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5579,11 +5678,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5636,27 +5735,27 @@
       <c r="E18" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -5785,26 +5884,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -5956,17 +6055,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5982,25 +6084,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6010,11 +6112,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6024,11 +6126,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6037,12 +6139,12 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,26 +6198,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -6244,26 +6346,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -6415,17 +6517,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A4:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6441,25 +6546,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,9 +6573,13 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -6478,9 +6587,13 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -6488,9 +6601,13 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -6543,26 +6660,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -6690,27 +6807,27 @@
       <c r="K31" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -6872,7 +6989,7 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6888,25 +7005,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6916,11 +7033,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6930,11 +7047,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6944,11 +7061,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7002,26 +7119,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -7150,26 +7267,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7331,7 +7448,7 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -7347,25 +7464,25 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -7375,11 +7492,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7389,11 +7506,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -7403,11 +7520,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7461,26 +7578,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -7609,26 +7726,26 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
